--- a/WebApplication1/issues.xlsx
+++ b/WebApplication1/issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirav\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8183B43-983B-4292-BC30-2387F0C7EF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829A658F-AEAB-4A3E-8333-21337A0FA541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>IssueID</t>
   </si>
@@ -34,49 +34,37 @@
     <t>Solution</t>
   </si>
   <si>
-    <t>An item I ordered</t>
-  </si>
-  <si>
-    <t>Tevlaphee Steering Wheel Lock</t>
-  </si>
-  <si>
-    <t>Yes, help me return</t>
-  </si>
-  <si>
-    <t>No, something else</t>
-  </si>
-  <si>
-    <t>Got it. What do you need help with?</t>
-  </si>
-  <si>
-    <t>Managing my account</t>
-  </si>
-  <si>
-    <t>Kindle, Fire, or Amazon device</t>
-  </si>
-  <si>
-    <t>Music, eBooks, Prime Video, etc.</t>
-  </si>
-  <si>
-    <t>An unknown charge</t>
-  </si>
-  <si>
-    <t>We can help you manage account details here.</t>
-  </si>
-  <si>
-    <t>We support Kindle and Fire troubleshooting.</t>
-  </si>
-  <si>
-    <t>Support for digital content issues.</t>
-  </si>
-  <si>
-    <t>Check your account billing history.</t>
-  </si>
-  <si>
-    <t>We've started your return. You’ll get an email soon.</t>
-  </si>
-  <si>
-    <t>Iphone 16 256 GB</t>
+    <t>Payment Issues</t>
+  </si>
+  <si>
+    <t>Refund for Cancelled Order</t>
+  </si>
+  <si>
+    <t>Failed Payment Retry</t>
+  </si>
+  <si>
+    <t>Report Issues</t>
+  </si>
+  <si>
+    <t>Report Order Issue</t>
+  </si>
+  <si>
+    <t>Delayed Shipment</t>
+  </si>
+  <si>
+    <t>Submit refund request via support form.</t>
+  </si>
+  <si>
+    <t>Try using a different payment method.</t>
+  </si>
+  <si>
+    <t>Email support with your order number.</t>
+  </si>
+  <si>
+    <t>Track shipment via your account or contact support.</t>
+  </si>
+  <si>
+    <t>I need help with something else</t>
   </si>
 </sst>
 </file>
@@ -444,16 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="23.54296875" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -480,104 +467,74 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/WebApplication1/issues.xlsx
+++ b/WebApplication1/issues.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nirav\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829A658F-AEAB-4A3E-8333-21337A0FA541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2759D5-AC1E-4C50-BE9F-DD23D5F64387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1290" yWindow="-110" windowWidth="18020" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>IssueID</t>
   </si>
@@ -64,7 +64,49 @@
     <t>Track shipment via your account or contact support.</t>
   </si>
   <si>
-    <t>I need help with something else</t>
+    <t>Login Issue</t>
+  </si>
+  <si>
+    <t>Account Issue</t>
+  </si>
+  <si>
+    <t>Delivery Issue</t>
+  </si>
+  <si>
+    <t>Refund Issue</t>
+  </si>
+  <si>
+    <t>Access Issue</t>
+  </si>
+  <si>
+    <t>System Issue</t>
+  </si>
+  <si>
+    <t>Profile Issue</t>
+  </si>
+  <si>
+    <t>Network Issue</t>
+  </si>
+  <si>
+    <t>Booking Issue</t>
+  </si>
+  <si>
+    <t>Update Issue</t>
+  </si>
+  <si>
+    <t>Inquiry Issue</t>
+  </si>
+  <si>
+    <t>Other Issue</t>
+  </si>
+  <si>
+    <t>Date Issue</t>
+  </si>
+  <si>
+    <t>More issues</t>
+  </si>
+  <si>
+    <t>Subsc Issue</t>
   </si>
 </sst>
 </file>
@@ -432,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -537,6 +579,156 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
